--- a/Tables/Specific LA Cooling Duty performance.xlsx
+++ b/Tables/Specific LA Cooling Duty performance.xlsx
@@ -55,7 +55,7 @@
     <t>SV_SLAD</t>
   </si>
   <si>
-    <t>DN_SLAD</t>
+    <t>DL_SLAD</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
         <v>0.97865568082329</v>
       </c>
       <c r="C3">
-        <v>0.0709503573057088</v>
+        <v>0.07095035730570878</v>
       </c>
       <c r="D3">
         <v>0.4650102453593327</v>
@@ -500,7 +500,7 @@
         <v>0.1300611767580639</v>
       </c>
       <c r="H3">
-        <v>0.6783968666656954</v>
+        <v>0.6783968666656957</v>
       </c>
       <c r="I3">
         <v>0.1772390495383021</v>
@@ -569,28 +569,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.997716969944348</v>
+        <v>0.9977169797572784</v>
       </c>
       <c r="C6">
-        <v>0.02668432779897105</v>
+        <v>0.02668426274565401</v>
       </c>
       <c r="D6">
-        <v>0.1558648923940367</v>
+        <v>0.1558647452979633</v>
       </c>
       <c r="E6">
-        <v>0.03445935773047747</v>
+        <v>0.0344592836737122</v>
       </c>
       <c r="F6">
-        <v>0.9286539042930543</v>
+        <v>0.9286539000248304</v>
       </c>
       <c r="G6">
-        <v>0.1567553730295284</v>
+        <v>0.1567553855754553</v>
       </c>
       <c r="H6">
-        <v>0.6594256464701849</v>
+        <v>0.6594255423022942</v>
       </c>
       <c r="I6">
-        <v>0.1926355646176444</v>
+        <v>0.1926355703797797</v>
       </c>
     </row>
   </sheetData>
